--- a/Input/Daman/userType.xlsx
+++ b/Input/Daman/userType.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t xml:space="preserve">benefits</t>
   </si>
@@ -115,7 +115,13 @@
     <t xml:space="preserve">Dental</t>
   </si>
   <si>
+    <t xml:space="preserve">Dental 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dental Waiting Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Waiting Period 1</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Benefits</t>
@@ -258,10 +264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -494,12 +500,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,12 +516,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,15 +529,15 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,7 +545,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,12 +556,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -574,12 +580,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
